--- a/teaching/traditional_assets/database/data/cayman_islands/cayman_islands_reinsurance.xlsx
+++ b/teaching/traditional_assets/database/data/cayman_islands/cayman_islands_reinsurance.xlsx
@@ -591,34 +591,34 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0717</v>
+        <v>-0.0985</v>
       </c>
       <c r="G2">
-        <v>-0.6746842936069455</v>
+        <v>0.01789158950617284</v>
       </c>
       <c r="H2">
-        <v>-0.6746842936069455</v>
+        <v>0.01789158950617284</v>
       </c>
       <c r="I2">
-        <v>-0.1000908518890974</v>
+        <v>-0.1508646688685669</v>
       </c>
       <c r="J2">
-        <v>-0.1000908518890974</v>
+        <v>-0.1508646688685669</v>
       </c>
       <c r="K2">
-        <v>-61.32</v>
+        <v>-68.67100000000001</v>
       </c>
       <c r="L2">
-        <v>-0.1209944751381215</v>
+        <v>-0.1655840084876543</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.04740574841358716</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>-0.1849397853533515</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -630,76 +630,79 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>12.7</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>15.27</v>
+        <v>11.6</v>
       </c>
       <c r="V2">
-        <v>0.04080051301234437</v>
+        <v>0.04329973870847331</v>
       </c>
       <c r="W2">
-        <v>-0.2808955898337792</v>
+        <v>-0.07834865692051016</v>
       </c>
       <c r="X2">
-        <v>0.08373008820604327</v>
+        <v>0.08909424715512393</v>
       </c>
       <c r="Y2">
-        <v>-0.3646256780398224</v>
+        <v>-0.1674429040756341</v>
       </c>
       <c r="Z2">
-        <v>0.7808019850507145</v>
+        <v>0.6998100223746121</v>
       </c>
       <c r="AA2">
-        <v>-0.3147966322889946</v>
+        <v>-0.0522852562940653</v>
       </c>
       <c r="AB2">
-        <v>0.07625997391064003</v>
+        <v>0.07820086300925749</v>
       </c>
       <c r="AC2">
-        <v>-0.3910566061996346</v>
+        <v>-0.1304861193033228</v>
       </c>
       <c r="AD2">
-        <v>93.14</v>
+        <v>94.416</v>
       </c>
       <c r="AE2">
-        <v>0.3752186869727297</v>
+        <v>0.9179773658602803</v>
       </c>
       <c r="AF2">
-        <v>93.51521868697273</v>
+        <v>95.33397736586029</v>
       </c>
       <c r="AG2">
-        <v>78.24521868697273</v>
+        <v>83.7339773658603</v>
       </c>
       <c r="AH2">
-        <v>0.1999148628468742</v>
+        <v>0.2624588648265055</v>
       </c>
       <c r="AI2">
-        <v>0.153811664844306</v>
+        <v>0.1798503254953416</v>
       </c>
       <c r="AJ2">
-        <v>0.1729156161204409</v>
+        <v>0.238128232069959</v>
       </c>
       <c r="AK2">
-        <v>0.1320114891942667</v>
+        <v>0.1615008293979884</v>
       </c>
       <c r="AL2">
-        <v>11.2</v>
+        <v>4.29</v>
       </c>
       <c r="AM2">
-        <v>11.2</v>
+        <v>4.29</v>
       </c>
       <c r="AN2">
-        <v>-1.83922118441579</v>
+        <v>-1.513731903227358</v>
       </c>
       <c r="AO2">
-        <v>-4.5375</v>
+        <v>-14.70815850815851</v>
       </c>
       <c r="AP2">
-        <v>-1.545096239943381</v>
+        <v>-1.342471540023092</v>
       </c>
       <c r="AQ2">
-        <v>-4.5375</v>
+        <v>-14.70815850815851</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Greenlight Capital Re, Ltd. (NasdaqGS:GLRE)</t>
+          <t>Oxbridge Re Holdings Limited (NasdaqCM:OXBR)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,25 +722,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.03240000000000001</v>
+        <v>-0.319</v>
       </c>
       <c r="G3">
-        <v>-0.6624380574826561</v>
+        <v>-0.125</v>
       </c>
       <c r="H3">
-        <v>-0.6624380574826561</v>
+        <v>-0.125</v>
       </c>
       <c r="I3">
-        <v>-0.08266807480157491</v>
+        <v>0.00919175721831896</v>
       </c>
       <c r="J3">
-        <v>-0.08266807480157491</v>
+        <v>0.00919175721831896</v>
       </c>
       <c r="K3">
-        <v>-54.5</v>
+        <v>-0.171</v>
       </c>
       <c r="L3">
-        <v>-0.1080277502477701</v>
+        <v>-0.1526785714285714</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +764,67 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>11.8</v>
+        <v>3.44</v>
       </c>
       <c r="V3">
-        <v>0.03190051365233847</v>
+        <v>0.3214953271028038</v>
       </c>
       <c r="W3">
-        <v>-0.09784560143626571</v>
+        <v>-0.02145545796737767</v>
       </c>
       <c r="X3">
-        <v>0.08589181634090569</v>
+        <v>0.07792933076350653</v>
       </c>
       <c r="Y3">
-        <v>-0.1837374177771714</v>
+        <v>-0.09938478873088419</v>
       </c>
       <c r="Z3">
-        <v>0.7969037250365861</v>
+        <v>0.2138005931214724</v>
       </c>
       <c r="AA3">
-        <v>-0.06587849675097819</v>
+        <v>0.001965203145105169</v>
       </c>
       <c r="AB3">
-        <v>0.0765399868022722</v>
+        <v>0.07656287168585088</v>
       </c>
       <c r="AC3">
-        <v>-0.1424184835532504</v>
+        <v>-0.07459766854074572</v>
       </c>
       <c r="AD3">
-        <v>92.40000000000001</v>
+        <v>0.216</v>
       </c>
       <c r="AE3">
-        <v>0.3752186869727297</v>
+        <v>0.1385261595774138</v>
       </c>
       <c r="AF3">
-        <v>92.77521868697274</v>
+        <v>0.3545261595774138</v>
       </c>
       <c r="AG3">
-        <v>80.97521868697274</v>
+        <v>-3.085473840422586</v>
       </c>
       <c r="AH3">
-        <v>0.200519100526412</v>
+        <v>0.03207067896530867</v>
       </c>
       <c r="AI3">
-        <v>0.1548123730032515</v>
+        <v>0.04326377787726735</v>
       </c>
       <c r="AJ3">
-        <v>0.179595629413359</v>
+        <v>-0.4052089093609236</v>
       </c>
       <c r="AK3">
-        <v>0.1378359735206451</v>
+        <v>-0.6489550665753042</v>
       </c>
       <c r="AL3">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-2.219499891907473</v>
-      </c>
-      <c r="AO3">
-        <v>-3.732142857142857</v>
+        <v>4.5</v>
       </c>
       <c r="AP3">
-        <v>-1.94507022860303</v>
-      </c>
-      <c r="AQ3">
-        <v>-3.732142857142857</v>
+        <v>-64.28070500880388</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +835,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oxbridge Re Holdings Limited (NasdaqCM:OXBR)</t>
+          <t>Greenlight Capital Re, Ltd. (NasdaqGS:GLRE)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -847,34 +844,34 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.111</v>
+        <v>0.122</v>
       </c>
       <c r="G4">
-        <v>-3.360869565217392</v>
+        <v>0.01827852998065764</v>
       </c>
       <c r="H4">
-        <v>-3.360869565217392</v>
+        <v>0.01827852998065764</v>
       </c>
       <c r="I4">
-        <v>-3.921739130434783</v>
+        <v>-0.1512980905252818</v>
       </c>
       <c r="J4">
-        <v>-3.921739130434783</v>
+        <v>-0.1512980905252818</v>
       </c>
       <c r="K4">
-        <v>-6.82</v>
+        <v>-68.5</v>
       </c>
       <c r="L4">
-        <v>-2.965217391304348</v>
+        <v>-0.1656189555125725</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>12.7</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.04937791601866252</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>-0.1854014598540146</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -886,70 +883,79 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>12.7</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>3.47</v>
+        <v>8.16</v>
       </c>
       <c r="V4">
-        <v>0.7958715596330275</v>
+        <v>0.03172628304821151</v>
       </c>
       <c r="W4">
-        <v>-0.4639455782312926</v>
+        <v>-0.1352418558736427</v>
       </c>
       <c r="X4">
-        <v>0.08156836007118086</v>
+        <v>0.1002591635467413</v>
       </c>
       <c r="Y4">
-        <v>-0.5455139383024734</v>
+        <v>-0.235501019420384</v>
       </c>
       <c r="Z4">
-        <v>0.1437410161864884</v>
+        <v>0.7041444830094117</v>
       </c>
       <c r="AA4">
-        <v>-0.5637147678270109</v>
+        <v>-0.1065357157332358</v>
       </c>
       <c r="AB4">
-        <v>0.07597996101900786</v>
+        <v>0.07983885433266409</v>
       </c>
       <c r="AC4">
-        <v>-0.6396947288460187</v>
+        <v>-0.1863745700658999</v>
       </c>
       <c r="AD4">
-        <v>0.74</v>
+        <v>94.2</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.7794512062828665</v>
       </c>
       <c r="AF4">
-        <v>0.74</v>
+        <v>94.97945120628287</v>
       </c>
       <c r="AG4">
-        <v>-2.73</v>
+        <v>86.81945120628288</v>
       </c>
       <c r="AH4">
-        <v>0.1450980392156863</v>
+        <v>0.2696904969354681</v>
       </c>
       <c r="AI4">
-        <v>0.0849598163030999</v>
+        <v>0.1819950009274085</v>
       </c>
       <c r="AJ4">
-        <v>-1.674846625766871</v>
+        <v>0.2523678556600676</v>
       </c>
       <c r="AK4">
-        <v>-0.5209923664122139</v>
+        <v>0.1690016817592151</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>4.29</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>4.29</v>
       </c>
       <c r="AN4">
-        <v>-0.08213096559378469</v>
+        <v>-1.509107511895035</v>
+      </c>
+      <c r="AO4">
+        <v>-14.70862470862471</v>
       </c>
       <c r="AP4">
-        <v>0.3029966703662598</v>
+        <v>-1.390869278068004</v>
+      </c>
+      <c r="AQ4">
+        <v>-14.70862470862471</v>
       </c>
     </row>
   </sheetData>
